--- a/biology/Virologie/Megaklothovirus_horridgei/Megaklothovirus_horridgei.xlsx
+++ b/biology/Virologie/Megaklothovirus_horridgei/Megaklothovirus_horridgei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Megaklothovirus horridgei est un virus géant de la famille des Klothoviridae, qui infecte le chaetognathe Spadella cephaloptera. C'est en 2024 le plus grand virus connu[a] (plus de 3,9 μm[b]).
-M. horridgei a été identifié en 2019[1] en réanalysant une étude de 1967 dans laquelle ces virus avaient été prises pour des soies présentes à la surface de S. cephaloptera[3]. Son épithète spécifique, horridgei, est un hommage au premier auteur de l'étude de 1967, George Adrian Horrige[1].
+M. horridgei a été identifié en 2019 en réanalysant une étude de 1967 dans laquelle ces virus avaient été prises pour des soies présentes à la surface de S. cephaloptera. Son épithète spécifique, horridgei, est un hommage au premier auteur de l'étude de 1967, George Adrian Horrige.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres virus de la famille des Klothoviridae, M. horridgei est un virus enveloppé en forme de fuseau. Sous sa capside, d'apparence lamellée, il comporte une membrane de type intracytoplasmique.
 Son site de multiplication est cytoplasmique. En microscopie électronique, l'intérieur des particules virales présente des régions très denses et d'autres plus claires. Il contient de nombreux ribosomes dont l'origine (cellulaire, virale ou partiellement virale) est encore inconnue. Son génome n'a pas encore été séquencé.
